--- a/data/strategies/中金场外策略结果.xlsx
+++ b/data/strategies/中金场外策略结果.xlsx
@@ -18,7 +18,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="184">
+  <si>
+    <t>易方达沪深300非银ETF联接A</t>
+  </si>
+  <si>
+    <t>国泰中证全指家用电器ETF联接A</t>
+  </si>
   <si>
     <t>华夏国证半导体芯片ETF联接A</t>
   </si>
@@ -26,12 +32,6 @@
     <t>富国中证新能源汽车</t>
   </si>
   <si>
-    <t>国泰中证全指家用电器ETF联接A</t>
-  </si>
-  <si>
-    <t>易方达沪深300非银ETF联接A</t>
-  </si>
-  <si>
     <t>三条主线</t>
   </si>
   <si>
@@ -62,73 +62,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>4.04%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>14.63%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>4.08%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>15.41%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>16.61%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>19.88%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>13.66%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>25.78%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>19.51%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>27.06%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>22.72%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>24.91%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -137,88 +134,88 @@
     <t>场外代码</t>
   </si>
   <si>
+    <t>000950.OF</t>
+  </si>
+  <si>
+    <t>008713.OF</t>
+  </si>
+  <si>
     <t>008887.OF</t>
   </si>
   <si>
     <t>161028.OF</t>
   </si>
   <si>
-    <t>008713.OF</t>
-  </si>
-  <si>
-    <t>000950.OF</t>
-  </si>
-  <si>
-    <t>16.66%</t>
-  </si>
-  <si>
-    <t>15.09%</t>
-  </si>
-  <si>
-    <t>-1.93%</t>
-  </si>
-  <si>
-    <t>-3.03%</t>
-  </si>
-  <si>
-    <t>36.63%</t>
-  </si>
-  <si>
-    <t>41.45%</t>
-  </si>
-  <si>
-    <t>6.75%</t>
-  </si>
-  <si>
-    <t>-1.19%</t>
-  </si>
-  <si>
-    <t>21.95%</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
-    <t>2.26%</t>
-  </si>
-  <si>
-    <t>-11.17%</t>
-  </si>
-  <si>
-    <t>36.29%</t>
-  </si>
-  <si>
-    <t>38.70%</t>
-  </si>
-  <si>
-    <t>9.37%</t>
-  </si>
-  <si>
-    <t>14.25%</t>
-  </si>
-  <si>
-    <t>30.64%</t>
-  </si>
-  <si>
-    <t>33.35%</t>
-  </si>
-  <si>
-    <t>14.27%</t>
-  </si>
-  <si>
-    <t>19.60%</t>
-  </si>
-  <si>
-    <t>33.26%</t>
-  </si>
-  <si>
-    <t>37.32%</t>
-  </si>
-  <si>
-    <t>18.96%</t>
-  </si>
-  <si>
-    <t>21.50%</t>
+    <t>-7.38%</t>
+  </si>
+  <si>
+    <t>-2.54%</t>
+  </si>
+  <si>
+    <t>19.52%</t>
+  </si>
+  <si>
+    <t>24.34%</t>
+  </si>
+  <si>
+    <t>-6.46%</t>
+  </si>
+  <si>
+    <t>-0.85%</t>
+  </si>
+  <si>
+    <t>31.33%</t>
+  </si>
+  <si>
+    <t>51.03%</t>
+  </si>
+  <si>
+    <t>-16.88%</t>
+  </si>
+  <si>
+    <t>-0.78%</t>
+  </si>
+  <si>
+    <t>31.01%</t>
+  </si>
+  <si>
+    <t>37.23%</t>
+  </si>
+  <si>
+    <t>17.67%</t>
+  </si>
+  <si>
+    <t>12.95%</t>
+  </si>
+  <si>
+    <t>42.92%</t>
+  </si>
+  <si>
+    <t>36.71%</t>
+  </si>
+  <si>
+    <t>20.84%</t>
+  </si>
+  <si>
+    <t>14.42%</t>
+  </si>
+  <si>
+    <t>32.52%</t>
+  </si>
+  <si>
+    <t>34.11%</t>
+  </si>
+  <si>
+    <t>21.45%</t>
+  </si>
+  <si>
+    <t>18.76%</t>
+  </si>
+  <si>
+    <t>34.08%</t>
+  </si>
+  <si>
+    <t>37.22%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -233,21 +230,21 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>601318.SH</t>
   </si>
   <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
+  </si>
+  <si>
     <t>600690.SH</t>
   </si>
   <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
     <t>603486.SH</t>
   </si>
   <si>
@@ -257,117 +254,117 @@
     <t>600030.SH</t>
   </si>
   <si>
+    <t>688169.SH</t>
+  </si>
+  <si>
+    <t>300782.SZ</t>
+  </si>
+  <si>
     <t>603501.SH</t>
   </si>
   <si>
     <t>002508.SZ</t>
   </si>
   <si>
+    <t>600837.SH</t>
+  </si>
+  <si>
+    <t>603986.SH</t>
+  </si>
+  <si>
     <t>601601.SH</t>
   </si>
   <si>
-    <t>300782.SZ</t>
-  </si>
-  <si>
-    <t>603986.SH</t>
+    <t>002129.SZ</t>
   </si>
   <si>
     <t>600703.SH</t>
   </si>
   <si>
+    <t>603195.SH</t>
+  </si>
+  <si>
     <t>601688.SH</t>
   </si>
   <si>
+    <t>601211.SH</t>
+  </si>
+  <si>
     <t>002049.SZ</t>
   </si>
   <si>
-    <t>603195.SH</t>
-  </si>
-  <si>
-    <t>600837.SH</t>
-  </si>
-  <si>
-    <t>002032.SZ</t>
-  </si>
-  <si>
-    <t>601211.SH</t>
-  </si>
-  <si>
-    <t>002129.SZ</t>
-  </si>
-  <si>
-    <t>10.02%</t>
-  </si>
-  <si>
-    <t>5.27%</t>
-  </si>
-  <si>
-    <t>4.34%</t>
-  </si>
-  <si>
-    <t>3.91%</t>
-  </si>
-  <si>
-    <t>3.90%</t>
-  </si>
-  <si>
-    <t>3.39%</t>
-  </si>
-  <si>
-    <t>2.86%</t>
-  </si>
-  <si>
-    <t>2.27%</t>
-  </si>
-  <si>
-    <t>1.98%</t>
-  </si>
-  <si>
-    <t>1.52%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>1.37%</t>
-  </si>
-  <si>
-    <t>1.31%</t>
-  </si>
-  <si>
-    <t>1.30%</t>
-  </si>
-  <si>
-    <t>1.20%</t>
-  </si>
-  <si>
-    <t>1.17%</t>
-  </si>
-  <si>
-    <t>1.16%</t>
-  </si>
-  <si>
-    <t>1.10%</t>
-  </si>
-  <si>
-    <t>1.04%</t>
-  </si>
-  <si>
-    <t>1.03%</t>
+    <t>956.74%</t>
+  </si>
+  <si>
+    <t>467.25%</t>
+  </si>
+  <si>
+    <t>461.47%</t>
+  </si>
+  <si>
+    <t>441.74%</t>
+  </si>
+  <si>
+    <t>375.70%</t>
+  </si>
+  <si>
+    <t>372.54%</t>
+  </si>
+  <si>
+    <t>291.92%</t>
+  </si>
+  <si>
+    <t>241.86%</t>
+  </si>
+  <si>
+    <t>164.35%</t>
+  </si>
+  <si>
+    <t>160.62%</t>
+  </si>
+  <si>
+    <t>158.70%</t>
+  </si>
+  <si>
+    <t>152.56%</t>
+  </si>
+  <si>
+    <t>149.67%</t>
+  </si>
+  <si>
+    <t>136.22%</t>
+  </si>
+  <si>
+    <t>129.20%</t>
+  </si>
+  <si>
+    <t>117.59%</t>
+  </si>
+  <si>
+    <t>113.45%</t>
+  </si>
+  <si>
+    <t>111.80%</t>
+  </si>
+  <si>
+    <t>106.19%</t>
+  </si>
+  <si>
+    <t>103.53%</t>
   </si>
   <si>
     <t>中国平安</t>
   </si>
   <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+  </si>
+  <si>
     <t>海尔智家</t>
   </si>
   <si>
-    <t>美的集团</t>
-  </si>
-  <si>
-    <t>格力电器</t>
-  </si>
-  <si>
     <t>科沃斯</t>
   </si>
   <si>
@@ -377,154 +374,154 @@
     <t>中信证券</t>
   </si>
   <si>
+    <t>石头科技</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
     <t>韦尔股份</t>
   </si>
   <si>
     <t>老板电器</t>
   </si>
   <si>
+    <t>海通证券</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
     <t>中国太保</t>
   </si>
   <si>
-    <t>卓胜微</t>
-  </si>
-  <si>
-    <t>兆易创新</t>
+    <t>中环股份</t>
   </si>
   <si>
     <t>三安光电</t>
   </si>
   <si>
+    <t>公牛集团</t>
+  </si>
+  <si>
     <t>华泰证券</t>
   </si>
   <si>
+    <t>国泰君安</t>
+  </si>
+  <si>
     <t>紫光国微</t>
   </si>
   <si>
-    <t>公牛集团</t>
-  </si>
-  <si>
-    <t>海通证券</t>
-  </si>
-  <si>
-    <t>苏泊尔</t>
-  </si>
-  <si>
-    <t>国泰君安</t>
-  </si>
-  <si>
-    <t>中环股份</t>
-  </si>
-  <si>
     <t>产险:机动车辆保险</t>
   </si>
   <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>暖通空调</t>
+  </si>
+  <si>
     <t>电冰箱</t>
   </si>
   <si>
-    <t>暖通空调</t>
-  </si>
-  <si>
-    <t>空调</t>
-  </si>
-  <si>
     <t>服务机器人</t>
   </si>
   <si>
     <t>证券经纪业务</t>
   </si>
   <si>
+    <t>智能扫地机</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
     <t>CMOS图像传感器产品</t>
   </si>
   <si>
     <t>油烟机</t>
   </si>
   <si>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
     <t>个人寿险</t>
   </si>
   <si>
-    <t>射频开关</t>
-  </si>
-  <si>
-    <t>存储芯片销售</t>
+    <t>新能源材料</t>
   </si>
   <si>
     <t>化合物半导体产品</t>
   </si>
   <si>
+    <t>电连接产品</t>
+  </si>
+  <si>
+    <t>机构金融:机构投资者服务</t>
+  </si>
+  <si>
     <t>集成电路</t>
   </si>
   <si>
-    <t>电连接产品</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>机构金融:机构投资者服务</t>
-  </si>
-  <si>
-    <t>新能源材料</t>
-  </si>
-  <si>
-    <t>-22.18%</t>
-  </si>
-  <si>
-    <t>-5.77%</t>
-  </si>
-  <si>
-    <t>-22.20%</t>
-  </si>
-  <si>
-    <t>-14.05%</t>
-  </si>
-  <si>
-    <t>151.63%</t>
-  </si>
-  <si>
-    <t>36.19%</t>
-  </si>
-  <si>
-    <t>-11.82%</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>14.96%</t>
-  </si>
-  <si>
-    <t>-16.40%</t>
-  </si>
-  <si>
-    <t>60.36%</t>
-  </si>
-  <si>
-    <t>28.48%</t>
-  </si>
-  <si>
-    <t>17.00%</t>
-  </si>
-  <si>
-    <t>-9.19%</t>
-  </si>
-  <si>
-    <t>14.89%</t>
-  </si>
-  <si>
-    <t>-2.78%</t>
-  </si>
-  <si>
-    <t>-6.81%</t>
-  </si>
-  <si>
-    <t>-11.07%</t>
-  </si>
-  <si>
-    <t>0.35%</t>
-  </si>
-  <si>
-    <t>44.06%</t>
+    <t>-29.54%</t>
+  </si>
+  <si>
+    <t>-20.16%</t>
+  </si>
+  <si>
+    <t>-24.87%</t>
+  </si>
+  <si>
+    <t>-8.19%</t>
+  </si>
+  <si>
+    <t>148.35%</t>
+  </si>
+  <si>
+    <t>37.06%</t>
+  </si>
+  <si>
+    <t>-16.18%</t>
+  </si>
+  <si>
+    <t>7.46%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>21.83%</t>
+  </si>
+  <si>
+    <t>-6.00%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>-20.79%</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>13.18%</t>
+  </si>
+  <si>
+    <t>-11.08%</t>
+  </si>
+  <si>
+    <t>-1.63%</t>
+  </si>
+  <si>
+    <t>27.29%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -533,7 +530,7 @@
     <t>标签占比</t>
   </si>
   <si>
-    <t>家电家具</t>
+    <t>家用电器</t>
   </si>
   <si>
     <t>保险</t>
@@ -542,37 +539,37 @@
     <t>证券</t>
   </si>
   <si>
-    <t>机械设备</t>
-  </si>
-  <si>
-    <t>电子</t>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
   </si>
   <si>
     <t>电气设备</t>
   </si>
   <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>32.15%</t>
-  </si>
-  <si>
-    <t>22.35%</t>
-  </si>
-  <si>
-    <t>18.88%</t>
-  </si>
-  <si>
-    <t>12.28%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>2.54%</t>
-  </si>
-  <si>
-    <t>1.99%</t>
+    <t>22.49%</t>
+  </si>
+  <si>
+    <t>11.45%</t>
+  </si>
+  <si>
+    <t>10.85%</t>
+  </si>
+  <si>
+    <t>6.06%</t>
+  </si>
+  <si>
+    <t>1.35%</t>
+  </si>
+  <si>
+    <t>1.23%</t>
+  </si>
+  <si>
+    <t>1.19%</t>
   </si>
 </sst>
 </file>
@@ -936,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -999,19 +996,19 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>0.9973515591627509</v>
+      </c>
+      <c r="C3">
+        <v>1.012275597814518</v>
+      </c>
+      <c r="D3">
         <v>1.026622902990518</v>
       </c>
-      <c r="C3">
-        <v>1.067860508953817</v>
-      </c>
-      <c r="D3">
-        <v>1.012275597814518</v>
-      </c>
       <c r="E3">
-        <v>0.9973515591627509</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="F3">
-        <v>1.019239141833036</v>
+        <v>1.032800242299884</v>
       </c>
       <c r="G3">
         <v>1.018168368380631</v>
@@ -1025,19 +1022,19 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>0.9929944468175993</v>
+      </c>
+      <c r="C4">
+        <v>1.032072660185908</v>
+      </c>
+      <c r="D4">
         <v>1.075857038657914</v>
       </c>
-      <c r="C4">
-        <v>1.074458058435438</v>
-      </c>
-      <c r="D4">
-        <v>1.032072660185908</v>
-      </c>
       <c r="E4">
-        <v>0.9929944468175993</v>
+        <v>1.07442665512765</v>
       </c>
       <c r="F4">
-        <v>1.033825711817027</v>
+        <v>1.053855027139833</v>
       </c>
       <c r="G4">
         <v>1.027111201157197</v>
@@ -1051,19 +1048,19 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.001025202904742</v>
+      </c>
+      <c r="C5">
+        <v>1.025189810544242</v>
+      </c>
+      <c r="D5">
         <v>1.060630926331145</v>
       </c>
-      <c r="C5">
-        <v>1.05937794533459</v>
-      </c>
-      <c r="D5">
-        <v>1.025189810544242</v>
-      </c>
       <c r="E5">
-        <v>1.001025202904742</v>
+        <v>1.05934351239414</v>
       </c>
       <c r="F5">
-        <v>1.02905246262134</v>
+        <v>1.044048117065671</v>
       </c>
       <c r="G5">
         <v>1.025290909062353</v>
@@ -1077,19 +1074,19 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.011362665527552</v>
+      </c>
+      <c r="C6">
+        <v>1.039097424253175</v>
+      </c>
+      <c r="D6">
         <v>1.069383661560904</v>
       </c>
-      <c r="C6">
-        <v>1.086710650329878</v>
-      </c>
-      <c r="D6">
-        <v>1.039097424253175</v>
-      </c>
       <c r="E6">
-        <v>1.011362665527552</v>
+        <v>1.086666254558942</v>
       </c>
       <c r="F6">
-        <v>1.043187862649073</v>
+        <v>1.060074687582273</v>
       </c>
       <c r="G6">
         <v>1.026858339183711</v>
@@ -1103,19 +1100,19 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.006236651003844</v>
+      </c>
+      <c r="C7">
+        <v>1.046051231107642</v>
+      </c>
+      <c r="D7">
         <v>1.066648431801605</v>
       </c>
-      <c r="C7">
-        <v>1.077285579641847</v>
-      </c>
-      <c r="D7">
-        <v>1.046051231107642</v>
-      </c>
       <c r="E7">
-        <v>1.006236651003844</v>
+        <v>1.07727019842987</v>
       </c>
       <c r="F7">
-        <v>1.041723783042177</v>
+        <v>1.056382087935339</v>
       </c>
       <c r="G7">
         <v>1.029917812005761</v>
@@ -1129,19 +1126,19 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>0.9841947885519008</v>
+      </c>
+      <c r="C8">
+        <v>1.027744270205066</v>
+      </c>
+      <c r="D8">
         <v>1.083333333333333</v>
       </c>
-      <c r="C8">
-        <v>1.04052780395853</v>
-      </c>
-      <c r="D8">
-        <v>1.027744270205066</v>
-      </c>
       <c r="E8">
-        <v>0.9841947885519008</v>
+        <v>1.040489583977252</v>
       </c>
       <c r="F8">
-        <v>1.024996282729416</v>
+        <v>1.042891202701178</v>
       </c>
       <c r="G8">
         <v>1.013866573688848</v>
@@ -1155,19 +1152,19 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.041178983340453</v>
+      </c>
+      <c r="C9">
+        <v>1.061307031859789</v>
+      </c>
+      <c r="D9">
         <v>1.109318016046681</v>
       </c>
-      <c r="C9">
-        <v>1.063147973609802</v>
-      </c>
-      <c r="D9">
-        <v>1.061307031859789</v>
-      </c>
       <c r="E9">
-        <v>1.041178983340453</v>
+        <v>1.063114298077517</v>
       </c>
       <c r="F9">
-        <v>1.063139603257682</v>
+        <v>1.074325286245027</v>
       </c>
       <c r="G9">
         <v>1.027660901099557</v>
@@ -1181,19 +1178,19 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.026655275523281</v>
+      </c>
+      <c r="C10">
+        <v>1.068899453629461</v>
+      </c>
+      <c r="D10">
         <v>1.12946754194019</v>
       </c>
-      <c r="C10">
-        <v>1.032045240339303</v>
-      </c>
-      <c r="D10">
-        <v>1.068899453629461</v>
-      </c>
       <c r="E10">
-        <v>1.026655275523281</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="F10">
-        <v>1.058990233607918</v>
+        <v>1.06953544697191</v>
       </c>
       <c r="G10">
         <v>1.020386015005238</v>
@@ -1207,19 +1204,19 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.003673643741991</v>
+      </c>
+      <c r="C11">
+        <v>1.048534733555666</v>
+      </c>
+      <c r="D11">
         <v>1.1259117432531</v>
       </c>
-      <c r="C11">
-        <v>1.005655042412818</v>
-      </c>
-      <c r="D11">
-        <v>1.048534733555666</v>
-      </c>
       <c r="E11">
-        <v>1.003673643741991</v>
+        <v>1.005625270445694</v>
       </c>
       <c r="F11">
-        <v>1.039595118071433</v>
+        <v>1.052282638661204</v>
       </c>
       <c r="G11">
         <v>1.011430617658561</v>
@@ -1233,19 +1230,19 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.010679196924391</v>
+      </c>
+      <c r="C12">
+        <v>1.052721209110906</v>
+      </c>
+      <c r="D12">
         <v>1.104850474106492</v>
       </c>
-      <c r="C12">
-        <v>1.02827521206409</v>
-      </c>
-      <c r="D12">
-        <v>1.052721209110906</v>
-      </c>
       <c r="E12">
-        <v>1.010679196924391</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="F12">
-        <v>1.043553500640647</v>
+        <v>1.05470122038131</v>
       </c>
       <c r="G12">
         <v>1.007914108598721</v>
@@ -1259,19 +1256,19 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.018111917983767</v>
+      </c>
+      <c r="C13">
+        <v>1.064925849712623</v>
+      </c>
+      <c r="D13">
         <v>1.166940189642597</v>
       </c>
-      <c r="C13">
-        <v>1.034872761545712</v>
-      </c>
-      <c r="D13">
-        <v>1.064925849712623</v>
-      </c>
       <c r="E13">
-        <v>1.018111917983767</v>
+        <v>1.034864313531557</v>
       </c>
       <c r="F13">
-        <v>1.061710665041821</v>
+        <v>1.080711906555857</v>
       </c>
       <c r="G13">
         <v>1.023142367573358</v>
@@ -1285,19 +1282,19 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.016830414352841</v>
+      </c>
+      <c r="C14">
+        <v>1.047967075853261</v>
+      </c>
+      <c r="D14">
         <v>1.149343544857768</v>
       </c>
-      <c r="C14">
-        <v>1.008482563619227</v>
-      </c>
-      <c r="D14">
-        <v>1.047967075853261</v>
-      </c>
       <c r="E14">
-        <v>1.016830414352841</v>
+        <v>1.008468813747914</v>
       </c>
       <c r="F14">
-        <v>1.048213610209103</v>
+        <v>1.063093651674912</v>
       </c>
       <c r="G14">
         <v>1.017160061629216</v>
@@ -1311,19 +1308,19 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.008714224690303</v>
+      </c>
+      <c r="C15">
+        <v>1.050663449939686</v>
+      </c>
+      <c r="D15">
         <v>1.159099197665937</v>
       </c>
-      <c r="C15">
-        <v>1.051837888784166</v>
-      </c>
-      <c r="D15">
-        <v>1.050663449939686</v>
-      </c>
       <c r="E15">
-        <v>1.008714224690303</v>
+        <v>1.051801941027385</v>
       </c>
       <c r="F15">
-        <v>1.055453937324414</v>
+        <v>1.079691580455894</v>
       </c>
       <c r="G15">
         <v>1.026434284942462</v>
@@ -1337,19 +1334,19 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.014438274241777</v>
+      </c>
+      <c r="C16">
+        <v>1.066841694458242</v>
+      </c>
+      <c r="D16">
         <v>1.159828592268417</v>
       </c>
-      <c r="C16">
-        <v>1.073515551366635</v>
-      </c>
-      <c r="D16">
-        <v>1.066841694458242</v>
-      </c>
       <c r="E16">
-        <v>1.014438274241777</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="F16">
-        <v>1.066490894088965</v>
+        <v>1.090815836333923</v>
       </c>
       <c r="G16">
         <v>1.04011081950838</v>
@@ -1363,19 +1360,19 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>0.9966680905595899</v>
+      </c>
+      <c r="C17">
+        <v>1.064287234797417</v>
+      </c>
+      <c r="D17">
         <v>1.146517140773158</v>
       </c>
-      <c r="C17">
-        <v>1.100848256361923</v>
-      </c>
-      <c r="D17">
-        <v>1.064287234797417</v>
-      </c>
       <c r="E17">
-        <v>0.9966680905595899</v>
+        <v>1.100822154911294</v>
       </c>
       <c r="F17">
-        <v>1.062167374880776</v>
+        <v>1.09198437288656</v>
       </c>
       <c r="G17">
         <v>1.042515364113389</v>
@@ -1389,19 +1386,19 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>0.9996582656984193</v>
+      </c>
+      <c r="C18">
+        <v>1.065990207904634</v>
+      </c>
+      <c r="D18">
         <v>1.133205689277899</v>
       </c>
-      <c r="C18">
-        <v>1.098020735155514</v>
-      </c>
-      <c r="D18">
-        <v>1.065990207904634</v>
-      </c>
       <c r="E18">
-        <v>0.9996582656984193</v>
+        <v>1.097978611609075</v>
       </c>
       <c r="F18">
-        <v>1.060972488442688</v>
+        <v>1.08745105980522</v>
       </c>
       <c r="G18">
         <v>1.043693292561303</v>
@@ -1415,19 +1412,19 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>0.9690730457069628</v>
+      </c>
+      <c r="C19">
+        <v>1.040374654083588</v>
+      </c>
+      <c r="D19">
         <v>1.109135667396061</v>
       </c>
-      <c r="C19">
-        <v>1.067860508953817</v>
-      </c>
-      <c r="D19">
-        <v>1.040374654083588</v>
-      </c>
       <c r="E19">
-        <v>0.9690730457069628</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="F19">
-        <v>1.033207090910361</v>
+        <v>1.059998946831971</v>
       </c>
       <c r="G19">
         <v>1.026047924411546</v>
@@ -1441,19 +1438,19 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>0.9704399829132848</v>
+      </c>
+      <c r="C20">
+        <v>1.040729440147591</v>
+      </c>
+      <c r="D20">
         <v>1.103574033552152</v>
       </c>
-      <c r="C20">
-        <v>1.073515551366635</v>
-      </c>
-      <c r="D20">
-        <v>1.040729440147591</v>
-      </c>
       <c r="E20">
-        <v>0.9704399829132848</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="F20">
-        <v>1.033791139046283</v>
+        <v>1.060333039198901</v>
       </c>
       <c r="G20">
         <v>1.02984870687015</v>
@@ -1467,19 +1464,19 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>0.9568560444254592</v>
+      </c>
+      <c r="C21">
+        <v>1.008443908323281</v>
+      </c>
+      <c r="D21">
         <v>1.059172137126185</v>
       </c>
-      <c r="C21">
-        <v>1.033930254476909</v>
-      </c>
-      <c r="D21">
-        <v>1.008443908323281</v>
-      </c>
       <c r="E21">
-        <v>0.9568560444254592</v>
+        <v>1.033875254991655</v>
       </c>
       <c r="F21">
-        <v>1.00437639097961</v>
+        <v>1.024806631366173</v>
       </c>
       <c r="G21">
         <v>1.007424090364388</v>
@@ -1493,19 +1490,19 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>0.9419051687313114</v>
+      </c>
+      <c r="C22">
+        <v>1.002199673596821</v>
+      </c>
+      <c r="D22">
         <v>1.039296134208607</v>
       </c>
-      <c r="C22">
-        <v>1.015080113100848</v>
-      </c>
-      <c r="D22">
-        <v>1.002199673596821</v>
-      </c>
       <c r="E22">
-        <v>0.9419051687313114</v>
+        <v>1.015021326574767</v>
       </c>
       <c r="F22">
-        <v>0.9907985600108913</v>
+        <v>1.008422585254296</v>
       </c>
       <c r="G22">
         <v>0.9967065120596316</v>
@@ -1519,19 +1516,19 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>0.9428449380606577</v>
+      </c>
+      <c r="C23">
+        <v>1.010146881430497</v>
+      </c>
+      <c r="D23">
         <v>1.044766593727206</v>
       </c>
-      <c r="C23">
-        <v>1.016022620169651</v>
-      </c>
-      <c r="D23">
-        <v>1.010146881430497</v>
-      </c>
       <c r="E23">
-        <v>0.9428449380606577</v>
+        <v>1.016010385114669</v>
       </c>
       <c r="F23">
-        <v>0.9948214667945471</v>
+        <v>1.012065012331315</v>
       </c>
       <c r="G23">
         <v>1.004110184997589</v>
@@ -1545,19 +1542,19 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>0.9418197351559162</v>
+      </c>
+      <c r="C24">
+        <v>1.034769034272334</v>
+      </c>
+      <c r="D24">
         <v>1.053336980306346</v>
       </c>
-      <c r="C24">
-        <v>1.057492931196984</v>
-      </c>
-      <c r="D24">
-        <v>1.034769034272334</v>
-      </c>
       <c r="E24">
-        <v>0.9418197351559162</v>
+        <v>1.057489027631823</v>
       </c>
       <c r="F24">
-        <v>1.011115378866889</v>
+        <v>1.032592673422398</v>
       </c>
       <c r="G24">
         <v>1.013770768841751</v>
@@ -1571,19 +1568,19 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>0.9288338316958563</v>
+      </c>
+      <c r="C25">
+        <v>1.025686511033847</v>
+      </c>
+      <c r="D25">
         <v>1.016502552881109</v>
       </c>
-      <c r="C25">
-        <v>1.054665409990575</v>
-      </c>
-      <c r="D25">
-        <v>1.025686511033847</v>
-      </c>
       <c r="E25">
-        <v>0.9288338316958563</v>
+        <v>1.054645484329604</v>
       </c>
       <c r="F25">
-        <v>0.9970902667889883</v>
+        <v>1.015747310543585</v>
       </c>
       <c r="G25">
         <v>1.00506038061224</v>
@@ -1597,19 +1594,19 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>0.9278940623665101</v>
+      </c>
+      <c r="C26">
+        <v>1.020577591712198</v>
+      </c>
+      <c r="D26">
         <v>1.015134938001459</v>
       </c>
-      <c r="C26">
-        <v>1.0311027332705</v>
-      </c>
-      <c r="D26">
-        <v>1.020577591712198</v>
-      </c>
       <c r="E26">
-        <v>0.9278940623665101</v>
+        <v>1.031093527848179</v>
       </c>
       <c r="F26">
-        <v>0.9908560499622066</v>
+        <v>1.006495574923761</v>
       </c>
       <c r="G26">
         <v>0.9939815709167896</v>
@@ -1623,19 +1620,19 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>0.9263562580093977</v>
+      </c>
+      <c r="C27">
+        <v>1.023415880224225</v>
+      </c>
+      <c r="D27">
         <v>0.9910649161196207</v>
       </c>
-      <c r="C27">
-        <v>1.002827521206409</v>
-      </c>
-      <c r="D27">
-        <v>1.023415880224225</v>
-      </c>
       <c r="E27">
-        <v>0.9263562580093977</v>
+        <v>1.002781727143475</v>
       </c>
       <c r="F27">
-        <v>0.9823865199625206</v>
+        <v>0.9894306557765375</v>
       </c>
       <c r="G27">
         <v>0.9800160512383169</v>
@@ -1649,19 +1646,19 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>0.9222554463904313</v>
+      </c>
+      <c r="C28">
+        <v>1.023841623501029</v>
+      </c>
+      <c r="D28">
         <v>1.017961342086069</v>
       </c>
-      <c r="C28">
-        <v>1.019792648444863</v>
-      </c>
-      <c r="D28">
-        <v>1.023841623501029</v>
-      </c>
       <c r="E28">
-        <v>0.9222554463904313</v>
+        <v>1.019781170798047</v>
       </c>
       <c r="F28">
-        <v>0.9886302114544403</v>
+        <v>1.003291531133306</v>
       </c>
       <c r="G28">
         <v>0.9930973392952219</v>
@@ -1675,19 +1672,19 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>0.936437419906023</v>
+      </c>
+      <c r="C29">
+        <v>1.041368055062797</v>
+      </c>
+      <c r="D29">
         <v>1.031637490882567</v>
       </c>
-      <c r="C29">
-        <v>1.04995287464656</v>
-      </c>
-      <c r="D29">
-        <v>1.041368055062797</v>
-      </c>
       <c r="E29">
-        <v>0.936437419906023</v>
+        <v>1.049947456265068</v>
       </c>
       <c r="F29">
-        <v>1.006546168879662</v>
+        <v>1.023149963303419</v>
       </c>
       <c r="G29">
         <v>1.014256075362292</v>
@@ -1701,19 +1698,19 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>0.9419051687313114</v>
+      </c>
+      <c r="C30">
+        <v>1.052650251898106</v>
+      </c>
+      <c r="D30">
         <v>1.039296134208607</v>
       </c>
-      <c r="C30">
-        <v>1.062205466540999</v>
-      </c>
-      <c r="D30">
-        <v>1.052650251898106</v>
-      </c>
       <c r="E30">
-        <v>0.9419051687313114</v>
+        <v>1.062187055696359</v>
       </c>
       <c r="F30">
-        <v>1.015458560935141</v>
+        <v>1.03256387417564</v>
       </c>
       <c r="G30">
         <v>1.024824449396979</v>
@@ -1727,19 +1724,19 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>0.9580521144809909</v>
+      </c>
+      <c r="C31">
+        <v>1.031859788547506</v>
+      </c>
+      <c r="D31">
         <v>1.062727935813275</v>
       </c>
-      <c r="C31">
-        <v>1.039585296889727</v>
-      </c>
-      <c r="D31">
-        <v>1.031859788547506</v>
-      </c>
       <c r="E31">
-        <v>0.9580521144809909</v>
+        <v>1.039562341596093</v>
       </c>
       <c r="F31">
-        <v>1.014064177558914</v>
+        <v>1.032040815059936</v>
       </c>
       <c r="G31">
         <v>1.038860644782327</v>
@@ -1753,19 +1750,19 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>0.9759931653139684</v>
+      </c>
+      <c r="C32">
+        <v>1.029092457248279</v>
+      </c>
+      <c r="D32">
         <v>1.057895696571846</v>
       </c>
-      <c r="C32">
-        <v>1.024505183788878</v>
-      </c>
-      <c r="D32">
-        <v>1.029092457248279</v>
-      </c>
       <c r="E32">
-        <v>0.9759931653139684</v>
+        <v>1.024479198862583</v>
       </c>
       <c r="F32">
-        <v>1.015686405106865</v>
+        <v>1.028048271328943</v>
       </c>
       <c r="G32">
         <v>1.052829305603327</v>
@@ -1779,19 +1776,19 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>0.955489107219137</v>
+      </c>
+      <c r="C33">
+        <v>0.9862343007166678</v>
+      </c>
+      <c r="D33">
         <v>1.032184536834428</v>
       </c>
-      <c r="C33">
-        <v>1.007540056550424</v>
-      </c>
-      <c r="D33">
-        <v>0.9862343007166678</v>
-      </c>
       <c r="E33">
-        <v>0.955489107219137</v>
+        <v>1.007479755208011</v>
       </c>
       <c r="F33">
-        <v>0.9875219054942403</v>
+        <v>1.003182195723092</v>
       </c>
       <c r="G33">
         <v>1.045538713796369</v>
@@ -1805,19 +1802,19 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>0.9604442545920546</v>
+      </c>
+      <c r="C34">
+        <v>0.9871567444830767</v>
+      </c>
+      <c r="D34">
         <v>1.021243617797228</v>
       </c>
-      <c r="C34">
-        <v>0.9896324222431668</v>
-      </c>
-      <c r="D34">
-        <v>0.9871567444830767</v>
-      </c>
       <c r="E34">
-        <v>0.9604442545920546</v>
+        <v>0.9896148853310256</v>
       </c>
       <c r="F34">
-        <v>0.9845572565016605</v>
+        <v>0.9946754758750962</v>
       </c>
       <c r="G34">
         <v>1.041481928221752</v>
@@ -1831,19 +1828,19 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>0.9528406663818879</v>
+      </c>
+      <c r="C35">
+        <v>0.9909884339743136</v>
+      </c>
+      <c r="D35">
         <v>1.028902261123268</v>
       </c>
-      <c r="C35">
-        <v>0.9547596606974551</v>
-      </c>
-      <c r="D35">
-        <v>0.9909884339743136</v>
-      </c>
       <c r="E35">
-        <v>0.9528406663818879</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="F35">
-        <v>0.9786861298270695</v>
+        <v>0.9850563819250573</v>
       </c>
       <c r="G35">
         <v>1.026555218929781</v>
@@ -1857,19 +1854,19 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>0.9695856471593336</v>
+      </c>
+      <c r="C36">
+        <v>0.9929042787199319</v>
+      </c>
+      <c r="D36">
         <v>1.020696571845368</v>
       </c>
-      <c r="C36">
-        <v>0.9377945334590009</v>
-      </c>
-      <c r="D36">
-        <v>0.9929042787199319</v>
-      </c>
       <c r="E36">
-        <v>0.9695856471593336</v>
+        <v>0.937751128144897</v>
       </c>
       <c r="F36">
-        <v>0.9805651634419004</v>
+        <v>0.9799110283962628</v>
       </c>
       <c r="G36">
         <v>1.020737822968348</v>
@@ -1883,19 +1880,19 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>0.9493378897906877</v>
+      </c>
+      <c r="C37">
+        <v>0.9753778471581637</v>
+      </c>
+      <c r="D37">
         <v>1.00656455142232</v>
       </c>
-      <c r="C37">
-        <v>0.9180018850141376</v>
-      </c>
-      <c r="D37">
-        <v>0.9753778471581637</v>
-      </c>
       <c r="E37">
-        <v>0.9493378897906877</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="F37">
-        <v>0.9623324873873187</v>
+        <v>0.962298063175131</v>
       </c>
       <c r="G37">
         <v>0.9995665223311676</v>
@@ -1909,19 +1906,19 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>0.9434429730884237</v>
+      </c>
+      <c r="C38">
+        <v>0.9898531185695026</v>
+      </c>
+      <c r="D38">
         <v>1.041666666666667</v>
       </c>
-      <c r="C38">
-        <v>0.9538171536286523</v>
-      </c>
-      <c r="D38">
-        <v>0.9898531185695026</v>
-      </c>
       <c r="E38">
-        <v>0.9434429730884237</v>
+        <v>0.953761513259566</v>
       </c>
       <c r="F38">
-        <v>0.9772199596973201</v>
+        <v>0.9871516349575042</v>
       </c>
       <c r="G38">
         <v>1.019055741144727</v>
@@ -1935,19 +1932,19 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>0.9317385732592909</v>
+      </c>
+      <c r="C39">
+        <v>0.9913432200383169</v>
+      </c>
+      <c r="D39">
         <v>1.052060539752006</v>
       </c>
-      <c r="C39">
-        <v>0.9575871819038644</v>
-      </c>
-      <c r="D39">
-        <v>0.9913432200383169</v>
-      </c>
       <c r="E39">
-        <v>0.9317385732592909</v>
+        <v>0.9575322989429437</v>
       </c>
       <c r="F39">
-        <v>0.9762571044697085</v>
+        <v>0.9900895416299267</v>
       </c>
       <c r="G39">
         <v>1.010400322909452</v>
@@ -1961,19 +1958,19 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>0.9560871422469029</v>
+      </c>
+      <c r="C40">
+        <v>0.9909884339743136</v>
+      </c>
+      <c r="D40">
         <v>1.053154631655726</v>
       </c>
-      <c r="C40">
-        <v>0.9651272384542884</v>
-      </c>
-      <c r="D40">
-        <v>0.9909884339743136</v>
-      </c>
       <c r="E40">
-        <v>0.9560871422469029</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="F40">
-        <v>0.9856428580717039</v>
+        <v>0.997018253606197</v>
       </c>
       <c r="G40">
         <v>1.024758485403896</v>
@@ -1987,19 +1984,19 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>0.9433575395130286</v>
+      </c>
+      <c r="C41">
+        <v>0.9664372383452778</v>
+      </c>
+      <c r="D41">
         <v>1.017687819110139</v>
       </c>
-      <c r="C41">
-        <v>0.9180018850141376</v>
-      </c>
-      <c r="D41">
-        <v>0.9664372383452778</v>
-      </c>
       <c r="E41">
-        <v>0.9433575395130286</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="F41">
-        <v>0.9592995263943681</v>
+        <v>0.9634321784667186</v>
       </c>
       <c r="G41">
         <v>1.005478152568434</v>
@@ -2013,19 +2010,19 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>0.9435284066638189</v>
+      </c>
+      <c r="C42">
+        <v>0.9673596821116867</v>
+      </c>
+      <c r="D42">
         <v>1.009664478482859</v>
       </c>
-      <c r="C42">
-        <v>0.9245994344957587</v>
-      </c>
-      <c r="D42">
-        <v>0.9673596821116867</v>
-      </c>
       <c r="E42">
-        <v>0.9435284066638189</v>
+        <v>0.9245842863324474</v>
       </c>
       <c r="F42">
-        <v>0.959417934502282</v>
+        <v>0.9631530674808872</v>
       </c>
       <c r="G42">
         <v>1.005715308829281</v>
@@ -2039,19 +2036,19 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.9347287483981205</v>
+      </c>
+      <c r="C43">
+        <v>0.9476335769530972</v>
+      </c>
+      <c r="D43">
         <v>0.9674507658643325</v>
       </c>
-      <c r="C43">
-        <v>0.8812441093308201</v>
-      </c>
-      <c r="D43">
-        <v>0.9476335769530972</v>
-      </c>
       <c r="E43">
-        <v>0.9347287483981205</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="F43">
-        <v>0.9354576961490779</v>
+        <v>0.9300528312000336</v>
       </c>
       <c r="G43">
         <v>0.9826137761087841</v>
@@ -2065,19 +2062,19 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.9185818026484407</v>
+      </c>
+      <c r="C44">
+        <v>0.9384091392890087</v>
+      </c>
+      <c r="D44">
         <v>0.9205871626549964</v>
       </c>
-      <c r="C44">
-        <v>0.8671065032987748</v>
-      </c>
-      <c r="D44">
-        <v>0.9384091392890087</v>
-      </c>
       <c r="E44">
-        <v>0.9185818026484407</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="F44">
-        <v>0.9167149340514995</v>
+        <v>0.9056236591767213</v>
       </c>
       <c r="G44">
         <v>0.9593049279814547</v>
@@ -2091,19 +2088,19 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.9113199487398547</v>
+      </c>
+      <c r="C45">
+        <v>0.9427375292698503</v>
+      </c>
+      <c r="D45">
         <v>0.9214989059080962</v>
       </c>
-      <c r="C45">
-        <v>0.8821866163996231</v>
-      </c>
-      <c r="D45">
-        <v>0.9427375292698503</v>
-      </c>
       <c r="E45">
-        <v>0.9113199487398547</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="F45">
-        <v>0.918465506535515</v>
+        <v>0.9104032826845863</v>
       </c>
       <c r="G45">
         <v>0.952121135020441</v>
@@ -2117,19 +2114,19 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9313968389577103</v>
+      </c>
+      <c r="C46">
+        <v>0.9554388703611723</v>
+      </c>
+      <c r="D46">
         <v>0.9493982494529539</v>
       </c>
-      <c r="C46">
-        <v>0.9066918001885014</v>
-      </c>
-      <c r="D46">
-        <v>0.9554388703611723</v>
-      </c>
       <c r="E46">
-        <v>0.9313968389577103</v>
+        <v>0.9066576002967175</v>
       </c>
       <c r="F46">
-        <v>0.9381910925142787</v>
+        <v>0.9332605010016016</v>
       </c>
       <c r="G46">
         <v>0.9759262836671583</v>
@@ -2143,19 +2140,19 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>0.9274668944895342</v>
+      </c>
+      <c r="C47">
+        <v>0.9564322713403818</v>
+      </c>
+      <c r="D47">
         <v>0.9350838803792852</v>
       </c>
-      <c r="C47">
-        <v>0.9132893496701224</v>
-      </c>
-      <c r="D47">
-        <v>0.9564322713403818</v>
-      </c>
       <c r="E47">
-        <v>0.9274668944895342</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="F47">
-        <v>0.9359101738322717</v>
+        <v>0.9302202753794137</v>
       </c>
       <c r="G47">
         <v>0.9772691220977807</v>
@@ -2169,19 +2166,19 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.9158479282357966</v>
+      </c>
+      <c r="C48">
+        <v>0.9373447810969985</v>
+      </c>
+      <c r="D48">
         <v>0.8967906637490883</v>
       </c>
-      <c r="C48">
-        <v>0.889726672950047</v>
-      </c>
-      <c r="D48">
-        <v>0.9373447810969985</v>
-      </c>
       <c r="E48">
-        <v>0.9158479282357966</v>
+        <v>0.8897199728008902</v>
       </c>
       <c r="F48">
-        <v>0.9152615413186755</v>
+        <v>0.9045912706480681</v>
       </c>
       <c r="G48">
         <v>0.9696502808966706</v>
@@ -2195,19 +2192,19 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.9205467748825287</v>
+      </c>
+      <c r="C49">
+        <v>0.9489108067835095</v>
+      </c>
+      <c r="D49">
         <v>0.8914113785557987</v>
       </c>
-      <c r="C49">
-        <v>0.8906691800188501</v>
-      </c>
-      <c r="D49">
-        <v>0.9489108067835095</v>
-      </c>
       <c r="E49">
-        <v>0.9205467748825287</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="F49">
-        <v>0.9198746969074829</v>
+        <v>0.9058871248167162</v>
       </c>
       <c r="G49">
         <v>0.9730065916875945</v>
@@ -2221,19 +2218,19 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9089278086287911</v>
+      </c>
+      <c r="C50">
+        <v>0.9671468104732847</v>
+      </c>
+      <c r="D50">
         <v>0.9170313639679066</v>
       </c>
-      <c r="C50">
-        <v>0.9123468426013195</v>
-      </c>
-      <c r="D50">
-        <v>0.9671468104732847</v>
-      </c>
       <c r="E50">
-        <v>0.9089278086287911</v>
+        <v>0.912344686901156</v>
       </c>
       <c r="F50">
-        <v>0.9300989194204534</v>
+        <v>0.9226267820341436</v>
       </c>
       <c r="G50">
         <v>0.9777371523344186</v>
@@ -2247,19 +2244,19 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9047415634344296</v>
+      </c>
+      <c r="C51">
+        <v>0.9723976442205351</v>
+      </c>
+      <c r="D51">
         <v>0.9179431072210065</v>
       </c>
-      <c r="C51">
-        <v>0.9132893496701224</v>
-      </c>
-      <c r="D51">
-        <v>0.9723976442205351</v>
-      </c>
       <c r="E51">
-        <v>0.9047415634344296</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="F51">
-        <v>0.9307654561976304</v>
+        <v>0.92341462734744</v>
       </c>
       <c r="G51">
         <v>0.9853544229642648</v>
@@ -2273,19 +2270,19 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.890559589918838</v>
+      </c>
+      <c r="C52">
+        <v>0.9569999290427872</v>
+      </c>
+      <c r="D52">
         <v>0.9106491611962072</v>
       </c>
-      <c r="C52">
-        <v>0.8850141376060321</v>
-      </c>
-      <c r="D52">
-        <v>0.9569999290427872</v>
-      </c>
       <c r="E52">
-        <v>0.890559589918838</v>
+        <v>0.8849601285776102</v>
       </c>
       <c r="F52">
-        <v>0.914957402053717</v>
+        <v>0.906636183848836</v>
       </c>
       <c r="G52">
         <v>0.9747907606433689</v>
@@ -2299,19 +2296,19 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.8987612131567706</v>
+      </c>
+      <c r="C53">
+        <v>0.966862981622082</v>
+      </c>
+      <c r="D53">
         <v>0.9125638220277169</v>
       </c>
-      <c r="C53">
-        <v>0.8963242224316682</v>
-      </c>
-      <c r="D53">
-        <v>0.966862981622082</v>
-      </c>
       <c r="E53">
-        <v>0.8987612131567706</v>
+        <v>0.8962724856277431</v>
       </c>
       <c r="F53">
-        <v>0.9231669518351169</v>
+        <v>0.9140720946387068</v>
       </c>
       <c r="G53">
         <v>0.9903535512972134</v>
@@ -2325,19 +2322,19 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9025202904741563</v>
+      </c>
+      <c r="C54">
+        <v>0.9589867310012062</v>
+      </c>
+      <c r="D54">
         <v>0.9124726477024069</v>
       </c>
-      <c r="C54">
-        <v>0.8671065032987748</v>
-      </c>
-      <c r="D54">
-        <v>0.9589867310012062</v>
-      </c>
       <c r="E54">
-        <v>0.9025202904741563</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="F54">
-        <v>0.9168257727570706</v>
+        <v>0.903713602763812</v>
       </c>
       <c r="G54">
         <v>0.9767649687220733</v>
@@ -2351,19 +2348,19 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.8990175138829559</v>
+      </c>
+      <c r="C55">
+        <v>0.9579933300219968</v>
+      </c>
+      <c r="D55">
         <v>0.8925966447848286</v>
       </c>
-      <c r="C55">
-        <v>0.8435438265786994</v>
-      </c>
-      <c r="D55">
-        <v>0.9579933300219968</v>
-      </c>
       <c r="E55">
-        <v>0.8990175138829559</v>
+        <v>0.8435433022192002</v>
       </c>
       <c r="F55">
-        <v>0.9079574586204342</v>
+        <v>0.8886180259751715</v>
       </c>
       <c r="G55">
         <v>0.9647296811269164</v>
@@ -2377,19 +2374,19 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.8961127723195215</v>
+      </c>
+      <c r="C56">
+        <v>0.9538068544667566</v>
+      </c>
+      <c r="D56">
         <v>0.9000729394602479</v>
       </c>
-      <c r="C56">
-        <v>0.8576814326107447</v>
-      </c>
-      <c r="D56">
-        <v>0.9538068544667566</v>
-      </c>
       <c r="E56">
-        <v>0.8961127723195215</v>
+        <v>0.8576373864128083</v>
       </c>
       <c r="F56">
-        <v>0.9092917200915405</v>
+        <v>0.8945307440917758</v>
       </c>
       <c r="G56">
         <v>0.9670651205963146</v>
@@ -2403,19 +2400,19 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.9037163605296882</v>
+      </c>
+      <c r="C57">
+        <v>0.974171574540552</v>
+      </c>
+      <c r="D57">
         <v>0.9171225382932167</v>
       </c>
-      <c r="C57">
-        <v>0.8934967012252591</v>
-      </c>
-      <c r="D57">
-        <v>0.974171574540552</v>
-      </c>
       <c r="E57">
-        <v>0.9037163605296882</v>
+        <v>0.8934907584842678</v>
       </c>
       <c r="F57">
-        <v>0.9275082892913202</v>
+        <v>0.9167433368985107</v>
       </c>
       <c r="G57">
         <v>0.9818881721848689</v>
@@ -2429,19 +2426,19 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.9002135839384878</v>
+      </c>
+      <c r="C58">
+        <v>0.9846022848222521</v>
+      </c>
+      <c r="D58">
         <v>0.9214077315827862</v>
       </c>
-      <c r="C58">
-        <v>0.8821866163996231</v>
-      </c>
-      <c r="D58">
-        <v>0.9846022848222521</v>
-      </c>
       <c r="E58">
-        <v>0.9002135839384878</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="F58">
-        <v>0.9286002758480538</v>
+        <v>0.9156021215849098</v>
       </c>
       <c r="G58">
         <v>0.9823829021329928</v>
@@ -2455,19 +2452,19 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9000427167876975</v>
+      </c>
+      <c r="C59">
+        <v>0.985524728588661</v>
+      </c>
+      <c r="D59">
         <v>0.9232312180889861</v>
       </c>
-      <c r="C59">
-        <v>0.8925541941564561</v>
-      </c>
-      <c r="D59">
-        <v>0.985524728588661</v>
-      </c>
       <c r="E59">
-        <v>0.9000427167876975</v>
+        <v>0.8925016999443655</v>
       </c>
       <c r="F59">
-        <v>0.9309207770559236</v>
+        <v>0.9197383286649869</v>
       </c>
       <c r="G59">
         <v>0.9863752942857905</v>
@@ -2481,19 +2478,19 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.8889363519863306</v>
+      </c>
+      <c r="C60">
+        <v>0.9941105513375434</v>
+      </c>
+      <c r="D60">
         <v>0.9211342086068562</v>
       </c>
-      <c r="C60">
-        <v>0.8812441093308201</v>
-      </c>
-      <c r="D60">
-        <v>0.9941105513375434</v>
-      </c>
       <c r="E60">
-        <v>0.8889363519863306</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="F60">
-        <v>0.9278097921462835</v>
+        <v>0.9148847455604179</v>
       </c>
       <c r="G60">
         <v>0.9822462624330348</v>
@@ -2507,19 +2504,19 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.8960273387441263</v>
+      </c>
+      <c r="C61">
+        <v>1.003334989001632</v>
+      </c>
+      <c r="D61">
         <v>0.9566921954777534</v>
       </c>
-      <c r="C61">
-        <v>0.8982092365692743</v>
-      </c>
-      <c r="D61">
-        <v>1.003334989001632</v>
-      </c>
       <c r="E61">
-        <v>0.8960273387441263</v>
+        <v>0.898188786548804</v>
       </c>
       <c r="F61">
-        <v>0.9421228116040949</v>
+        <v>0.9350023197855428</v>
       </c>
       <c r="G61">
         <v>0.9912911823417532</v>
@@ -2533,19 +2530,19 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>0.8954293037163605</v>
+      </c>
+      <c r="C62">
+        <v>1.010501667494501</v>
+      </c>
+      <c r="D62">
         <v>1.0036469730124</v>
       </c>
-      <c r="C62">
-        <v>0.9095193213949105</v>
-      </c>
-      <c r="D62">
-        <v>1.010501667494501</v>
-      </c>
       <c r="E62">
-        <v>0.8954293037163605</v>
+        <v>0.9095011435989369</v>
       </c>
       <c r="F62">
-        <v>0.954195490548827</v>
+        <v>0.9553471435875875</v>
       </c>
       <c r="G62">
         <v>0.9936391863812625</v>
@@ -2559,19 +2556,19 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.8950021358393849</v>
+      </c>
+      <c r="C63">
+        <v>1.00411551834244</v>
+      </c>
+      <c r="D63">
         <v>0.9978118161925602</v>
       </c>
-      <c r="C63">
-        <v>0.9142318567389255</v>
-      </c>
-      <c r="D63">
-        <v>1.00411551834244</v>
-      </c>
       <c r="E63">
-        <v>0.8950021358393849</v>
+        <v>0.914199171663473</v>
       </c>
       <c r="F63">
-        <v>0.9517562502783548</v>
+        <v>0.9538136272034011</v>
       </c>
       <c r="G63">
         <v>0.9962290583954103</v>
@@ -2585,19 +2582,19 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.88859461768475</v>
+      </c>
+      <c r="C64">
+        <v>1.000709572128007</v>
+      </c>
+      <c r="D64">
         <v>0.9975382932166302</v>
       </c>
-      <c r="C64">
-        <v>0.9085768143261075</v>
-      </c>
-      <c r="D64">
-        <v>1.000709572128007</v>
-      </c>
       <c r="E64">
-        <v>0.88859461768475</v>
+        <v>0.9085739012177784</v>
       </c>
       <c r="F64">
-        <v>0.9475099509204752</v>
+        <v>0.9501987364315235</v>
       </c>
       <c r="G64">
         <v>0.9970112028848254</v>
@@ -2611,19 +2608,19 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.8909013242204185</v>
+      </c>
+      <c r="C65">
+        <v>1.003973603916838</v>
+      </c>
+      <c r="D65">
         <v>0.9950765864332604</v>
       </c>
-      <c r="C65">
-        <v>0.9038642789820923</v>
-      </c>
-      <c r="D65">
-        <v>1.003973603916838</v>
-      </c>
       <c r="E65">
-        <v>0.8909013242204185</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="F65">
-        <v>0.9481286734059047</v>
+        <v>0.948762650114494</v>
       </c>
       <c r="G65">
         <v>0.9983728881706143</v>
@@ -2637,19 +2634,19 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.879367791542076</v>
+      </c>
+      <c r="C66">
+        <v>0.9977293691903781</v>
+      </c>
+      <c r="D66">
         <v>0.9869620714806711</v>
       </c>
-      <c r="C66">
-        <v>0.8906691800188501</v>
-      </c>
-      <c r="D66">
-        <v>0.9977293691903781</v>
-      </c>
       <c r="E66">
-        <v>0.879367791542076</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="F66">
-        <v>0.9386393757966285</v>
+        <v>0.9387175819232148</v>
       </c>
       <c r="G66">
         <v>0.9949945893819959</v>
@@ -2663,19 +2660,19 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.8684322938914992</v>
+      </c>
+      <c r="C67">
+        <v>0.9810544241822181</v>
+      </c>
+      <c r="D67">
         <v>0.9705506929248724</v>
       </c>
-      <c r="C67">
-        <v>0.8633364750235627</v>
-      </c>
-      <c r="D67">
-        <v>0.9810544241822181</v>
-      </c>
       <c r="E67">
-        <v>0.8684322938914992</v>
+        <v>0.8633244730172468</v>
       </c>
       <c r="F67">
-        <v>0.9220914355155607</v>
+        <v>0.9195915468334313</v>
       </c>
       <c r="G67">
         <v>0.9779036328883906</v>
@@ -2689,19 +2686,19 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.8651003844510892</v>
+      </c>
+      <c r="C68">
+        <v>0.9736748740509473</v>
+      </c>
+      <c r="D68">
         <v>0.9644420131291029</v>
       </c>
-      <c r="C68">
-        <v>0.8671065032987748</v>
-      </c>
-      <c r="D68">
-        <v>0.9736748740509473</v>
-      </c>
       <c r="E68">
-        <v>0.8651003844510892</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="F68">
-        <v>0.9181590830984113</v>
+        <v>0.9169990936491563</v>
       </c>
       <c r="G68">
         <v>0.9752902023052845</v>
@@ -2715,19 +2712,19 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.8731311405382315</v>
+      </c>
+      <c r="C69">
+        <v>0.9833250549918399</v>
+      </c>
+      <c r="D69">
         <v>0.9681801604668127</v>
       </c>
-      <c r="C69">
-        <v>0.9038642789820923</v>
-      </c>
-      <c r="D69">
-        <v>0.9833250549918399</v>
-      </c>
       <c r="E69">
-        <v>0.8731311405382315</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="F69">
-        <v>0.9308780992312374</v>
+        <v>0.9333556450023448</v>
       </c>
       <c r="G69">
         <v>0.9858805643376666</v>
@@ -2741,19 +2738,19 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.8634771465185817</v>
+      </c>
+      <c r="C70">
+        <v>0.9786418789469949</v>
+      </c>
+      <c r="D70">
         <v>0.9624361779722831</v>
       </c>
-      <c r="C70">
-        <v>0.9038642789820923</v>
-      </c>
-      <c r="D70">
-        <v>0.9786418789469949</v>
-      </c>
       <c r="E70">
-        <v>0.8634771465185817</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="F70">
-        <v>0.9251703560858842</v>
+        <v>0.9290228118681859</v>
       </c>
       <c r="G70">
         <v>0.9857627714928752</v>
@@ -2767,19 +2764,19 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.8679196924391285</v>
+      </c>
+      <c r="C71">
+        <v>0.9831831405662386</v>
+      </c>
+      <c r="D71">
         <v>0.9574215900802334</v>
       </c>
-      <c r="C71">
-        <v>0.9029217719132893</v>
-      </c>
-      <c r="D71">
-        <v>0.9831831405662386</v>
-      </c>
       <c r="E71">
-        <v>0.8679196924391285</v>
+        <v>0.9028868146133399</v>
       </c>
       <c r="F71">
-        <v>0.92712230643067</v>
+        <v>0.9285892551597916</v>
       </c>
       <c r="G71">
         <v>0.9956777878817863</v>
@@ -2793,19 +2790,19 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>0.8821016659547201</v>
+      </c>
+      <c r="C72">
+        <v>0.9971617114879727</v>
+      </c>
+      <c r="D72">
         <v>0.9801239970824216</v>
       </c>
-      <c r="C72">
-        <v>0.9557021677662583</v>
-      </c>
-      <c r="D72">
-        <v>0.9971617114879727</v>
-      </c>
       <c r="E72">
-        <v>0.8821016659547201</v>
+        <v>0.9556778141806269</v>
       </c>
       <c r="F72">
-        <v>0.9492473625803641</v>
+        <v>0.9582893718820639</v>
       </c>
       <c r="G72">
         <v>1.009132871899496</v>
@@ -2819,19 +2816,19 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.8761213156770611</v>
+      </c>
+      <c r="C73">
+        <v>0.9985098985311857</v>
+      </c>
+      <c r="D73">
         <v>0.9700948212983225</v>
       </c>
-      <c r="C73">
-        <v>0.9509896324222431</v>
-      </c>
-      <c r="D73">
-        <v>0.9985098985311857</v>
-      </c>
       <c r="E73">
-        <v>0.8761213156770611</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="F73">
-        <v>0.9452126578212177</v>
+        <v>0.9526419268621584</v>
       </c>
       <c r="G73">
         <v>1.009648019274051</v>
@@ -2845,19 +2842,19 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>0.8731311405382315</v>
+      </c>
+      <c r="C74">
+        <v>0.9986518129567871</v>
+      </c>
+      <c r="D74">
         <v>0.9735594456601022</v>
       </c>
-      <c r="C74">
-        <v>0.9509896324222431</v>
-      </c>
-      <c r="D74">
-        <v>0.9986518129567871</v>
-      </c>
       <c r="E74">
-        <v>0.8731311405382315</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="F74">
-        <v>0.9448617179273548</v>
+        <v>0.9533010485802969</v>
       </c>
       <c r="G74">
         <v>1.008347586267553</v>
@@ -2871,19 +2868,19 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>0.8756941478000853</v>
+      </c>
+      <c r="C75">
+        <v>0.9953877811679558</v>
+      </c>
+      <c r="D75">
         <v>0.9834062727935813</v>
       </c>
-      <c r="C75">
-        <v>0.9528746465598491</v>
-      </c>
-      <c r="D75">
-        <v>0.9953877811679558</v>
-      </c>
       <c r="E75">
-        <v>0.8756941478000853</v>
+        <v>0.9528342708784078</v>
       </c>
       <c r="F75">
-        <v>0.9466247928495368</v>
+        <v>0.9570433073363234</v>
       </c>
       <c r="G75">
         <v>1.012306996423809</v>
@@ -2897,19 +2894,19 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>0.8769756514310123</v>
+      </c>
+      <c r="C76">
+        <v>1.003973603916838</v>
+      </c>
+      <c r="D76">
         <v>0.987235594456601</v>
       </c>
-      <c r="C76">
-        <v>0.9641847313854853</v>
-      </c>
-      <c r="D76">
-        <v>1.003973603916838</v>
-      </c>
       <c r="E76">
-        <v>0.8769756514310123</v>
+        <v>0.9641466279285407</v>
       </c>
       <c r="F76">
-        <v>0.9524547096579454</v>
+        <v>0.9637175067962314</v>
       </c>
       <c r="G76">
         <v>1.015022514139068</v>
@@ -2923,19 +2920,19 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>0.8611704399829132</v>
+      </c>
+      <c r="C77">
+        <v>0.9970197970623714</v>
+      </c>
+      <c r="D77">
         <v>0.9897884755652807</v>
       </c>
-      <c r="C77">
-        <v>0.9547596606974551</v>
-      </c>
-      <c r="D77">
-        <v>0.9970197970623714</v>
-      </c>
       <c r="E77">
-        <v>0.8611704399829132</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="F77">
-        <v>0.9437759613896091</v>
+        <v>0.9575902259280656</v>
       </c>
       <c r="G77">
         <v>1.011864095327393</v>
@@ -2949,19 +2946,19 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>0.8591200341734301</v>
+      </c>
+      <c r="C78">
+        <v>1.004754133257646</v>
+      </c>
+      <c r="D78">
         <v>0.9785740335521517</v>
       </c>
-      <c r="C78">
-        <v>0.945334590009425</v>
-      </c>
-      <c r="D78">
-        <v>1.004754133257646</v>
-      </c>
       <c r="E78">
-        <v>0.8591200341734301</v>
+        <v>0.9452926995116523</v>
       </c>
       <c r="F78">
-        <v>0.942142941257723</v>
+        <v>0.9517346303743383</v>
       </c>
       <c r="G78">
         <v>1.012434212696184</v>
@@ -2975,19 +2972,19 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>0.8608287056813327</v>
+      </c>
+      <c r="C79">
+        <v>1.022706308096218</v>
+      </c>
+      <c r="D79">
         <v>0.9976294675419403</v>
       </c>
-      <c r="C79">
-        <v>0.9679547596606973</v>
-      </c>
-      <c r="D79">
-        <v>1.022706308096218</v>
-      </c>
       <c r="E79">
-        <v>0.8608287056813327</v>
+        <v>0.9679174136119183</v>
       </c>
       <c r="F79">
-        <v>0.9557158731710402</v>
+        <v>0.9688314231229569</v>
       </c>
       <c r="G79">
         <v>1.019259915409032</v>
@@ -3001,19 +2998,19 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>0.8772319521571976</v>
+      </c>
+      <c r="C80">
+        <v>1.038316894912368</v>
+      </c>
+      <c r="D80">
         <v>1.00483223924143</v>
       </c>
-      <c r="C80">
-        <v>0.9651272384542884</v>
-      </c>
-      <c r="D80">
-        <v>1.038316894912368</v>
-      </c>
       <c r="E80">
-        <v>0.8772319521571976</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="F80">
-        <v>0.9670242307412287</v>
+        <v>0.9757123201536986</v>
       </c>
       <c r="G80">
         <v>1.019603870515823</v>
@@ -3027,19 +3024,19 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>0.8660401537804356</v>
+      </c>
+      <c r="C81">
+        <v>1.023203008585823</v>
+      </c>
+      <c r="D81">
         <v>1.009938001458789</v>
       </c>
-      <c r="C81">
-        <v>0.9839773798303488</v>
-      </c>
-      <c r="D81">
-        <v>1.023203008585823</v>
-      </c>
       <c r="E81">
-        <v>0.8660401537804356</v>
+        <v>0.9839277987265871</v>
       </c>
       <c r="F81">
-        <v>0.9624158584000189</v>
+        <v>0.9791470516634382</v>
       </c>
       <c r="G81">
         <v>1.018626975189686</v>
@@ -3053,19 +3050,19 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>0.8546774882528833</v>
+      </c>
+      <c r="C82">
+        <v>1.020222805648194</v>
+      </c>
+      <c r="D82">
         <v>0.9967177242888402</v>
       </c>
-      <c r="C82">
-        <v>0.9764373232799246</v>
-      </c>
-      <c r="D82">
-        <v>1.020222805648194</v>
-      </c>
       <c r="E82">
-        <v>0.8546774882528833</v>
+        <v>0.9763862273598318</v>
       </c>
       <c r="F82">
-        <v>0.9541534550740456</v>
+        <v>0.9698573540072449</v>
       </c>
       <c r="G82">
         <v>1.01919866312974</v>
@@ -3079,19 +3076,19 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>0.8450234942332335</v>
+      </c>
+      <c r="C83">
+        <v>0.996452139359966</v>
+      </c>
+      <c r="D83">
         <v>0.9526805251641137</v>
       </c>
-      <c r="C83">
-        <v>0.9500471253534402</v>
-      </c>
-      <c r="D83">
-        <v>0.996452139359966</v>
-      </c>
       <c r="E83">
-        <v>0.8450234942332335</v>
+        <v>0.9499907275761884</v>
       </c>
       <c r="F83">
-        <v>0.93115065967374</v>
+        <v>0.9409323711151436</v>
       </c>
       <c r="G83">
         <v>1.012145227583629</v>
@@ -3105,19 +3102,19 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>0.8423750533959845</v>
+      </c>
+      <c r="C84">
+        <v>0.9972326687007734</v>
+      </c>
+      <c r="D84">
         <v>0.9333515681983954</v>
       </c>
-      <c r="C84">
-        <v>0.9547596606974551</v>
-      </c>
-      <c r="D84">
-        <v>0.9972326687007734</v>
-      </c>
       <c r="E84">
-        <v>0.8423750533959845</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="F84">
-        <v>0.9280494572042248</v>
+        <v>0.9358070189557439</v>
       </c>
       <c r="G84">
         <v>1.017100379921189</v>
@@ -3131,19 +3128,19 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>0.8492951730029901</v>
+      </c>
+      <c r="C85">
+        <v>0.9973036259135741</v>
+      </c>
+      <c r="D85">
         <v>0.9413749088256747</v>
       </c>
-      <c r="C85">
-        <v>0.9387370405278039</v>
-      </c>
-      <c r="D85">
-        <v>0.9973036259135741</v>
-      </c>
       <c r="E85">
-        <v>0.8492951730029901</v>
+        <v>0.9387401866847994</v>
       </c>
       <c r="F85">
-        <v>0.9289966350325576</v>
+        <v>0.9343597773342724</v>
       </c>
       <c r="G85">
         <v>1.013967090249737</v>
@@ -3157,19 +3154,19 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>0.8471593336181119</v>
+      </c>
+      <c r="C86">
+        <v>0.9976584119775774</v>
+      </c>
+      <c r="D86">
         <v>0.9553245805981037</v>
       </c>
-      <c r="C86">
-        <v>0.942507068803016</v>
-      </c>
-      <c r="D86">
-        <v>0.9976584119775774</v>
-      </c>
       <c r="E86">
-        <v>0.8471593336181119</v>
+        <v>0.9424491562094331</v>
       </c>
       <c r="F86">
-        <v>0.9314212364447678</v>
+        <v>0.9398843498977544</v>
       </c>
       <c r="G86">
         <v>1.022763859898761</v>
@@ -3183,19 +3180,19 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>0.8411789833404527</v>
+      </c>
+      <c r="C87">
+        <v>0.9816930390974242</v>
+      </c>
+      <c r="D87">
         <v>0.9482129832239242</v>
       </c>
-      <c r="C87">
-        <v>0.9236569274269556</v>
-      </c>
-      <c r="D87">
-        <v>0.9816930390974242</v>
-      </c>
       <c r="E87">
-        <v>0.8411789833404527</v>
+        <v>0.9236570439512889</v>
       </c>
       <c r="F87">
-        <v>0.9197656522151489</v>
+        <v>0.9276053527822594</v>
       </c>
       <c r="G87">
         <v>1.011295548529867</v>
@@ -3209,19 +3206,19 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>0.8879965826569842</v>
+      </c>
+      <c r="C88">
+        <v>0.9894983325054992</v>
+      </c>
+      <c r="D88">
         <v>0.9706418672501823</v>
       </c>
-      <c r="C88">
-        <v>0.9519321394910462</v>
-      </c>
-      <c r="D88">
-        <v>0.9894983325054992</v>
-      </c>
       <c r="E88">
-        <v>0.8879965826569842</v>
+        <v>0.9519070284972493</v>
       </c>
       <c r="F88">
-        <v>0.9464109031496284</v>
+        <v>0.9536152711742747</v>
       </c>
       <c r="G88">
         <v>1.024923395386604</v>
@@ -3235,19 +3232,19 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>0.8757795813754804</v>
+      </c>
+      <c r="C89">
+        <v>0.9970907542751721</v>
+      </c>
+      <c r="D89">
         <v>0.9813092633114515</v>
       </c>
-      <c r="C89">
-        <v>0.9924599434495758</v>
-      </c>
-      <c r="D89">
-        <v>0.9970907542751721</v>
-      </c>
       <c r="E89">
-        <v>0.8757795813754804</v>
+        <v>0.9924584286332447</v>
       </c>
       <c r="F89">
-        <v>0.9535879759140901</v>
+        <v>0.9697312954023607</v>
       </c>
       <c r="G89">
         <v>1.033143765381782</v>
@@ -3261,19 +3258,19 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>0.8791114908158905</v>
+      </c>
+      <c r="C90">
+        <v>1.000922443766409</v>
+      </c>
+      <c r="D90">
         <v>0.9739241429613421</v>
       </c>
-      <c r="C90">
-        <v>0.9934024505183789</v>
-      </c>
-      <c r="D90">
-        <v>1.000922443766409</v>
-      </c>
       <c r="E90">
-        <v>0.8791114908158905</v>
+        <v>0.9933856710144032</v>
       </c>
       <c r="F90">
-        <v>0.9548567193037114</v>
+        <v>0.9688180074909869</v>
       </c>
       <c r="G90">
         <v>1.036514211314081</v>
@@ -3287,19 +3284,19 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>0.8744126441691584</v>
+      </c>
+      <c r="C91">
+        <v>0.9905626906975094</v>
+      </c>
+      <c r="D91">
         <v>0.9877826404084609</v>
       </c>
-      <c r="C91">
-        <v>1.026390197926484</v>
-      </c>
-      <c r="D91">
-        <v>0.9905626906975094</v>
-      </c>
       <c r="E91">
-        <v>0.8744126441691584</v>
+        <v>1.0263336836249</v>
       </c>
       <c r="F91">
-        <v>0.9578512430229411</v>
+        <v>0.9817041938583426</v>
       </c>
       <c r="G91">
         <v>1.034125372421711</v>
@@ -3313,19 +3310,19 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>0.883981204613413</v>
+      </c>
+      <c r="C92">
+        <v>1.010856453558504</v>
+      </c>
+      <c r="D92">
         <v>0.9862326768781912</v>
       </c>
-      <c r="C92">
-        <v>1.032045240339303</v>
-      </c>
-      <c r="D92">
-        <v>1.010856453558504</v>
-      </c>
       <c r="E92">
-        <v>0.883981204613413</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="F92">
-        <v>0.9684036731237067</v>
+        <v>0.9881460394347106</v>
       </c>
       <c r="G92">
         <v>1.028521574152166</v>
@@ -3339,19 +3336,19 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>0.8713370354549338</v>
+      </c>
+      <c r="C93">
+        <v>1.010004967004896</v>
+      </c>
+      <c r="D93">
         <v>0.9772064186725019</v>
       </c>
-      <c r="C93">
-        <v>1.027332704995288</v>
-      </c>
-      <c r="D93">
-        <v>1.010004967004896</v>
-      </c>
       <c r="E93">
-        <v>0.8713370354549338</v>
+        <v>1.027322742164802</v>
       </c>
       <c r="F93">
-        <v>0.9616145118352681</v>
+        <v>0.9813227634944813</v>
       </c>
       <c r="G93">
         <v>1.025246933066964</v>
@@ -3365,19 +3362,19 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>0.8809910294745833</v>
+      </c>
+      <c r="C94">
+        <v>1.009437309302491</v>
+      </c>
+      <c r="D94">
         <v>0.9857768052516411</v>
       </c>
-      <c r="C94">
-        <v>1.02827521206409</v>
-      </c>
-      <c r="D94">
-        <v>1.009437309302491</v>
-      </c>
       <c r="E94">
-        <v>0.8809910294745833</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="F94">
-        <v>0.9662301947401088</v>
+        <v>0.9860016582253111</v>
       </c>
       <c r="G94">
         <v>1.027800681942043</v>
@@ -3391,19 +3388,19 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>0.9152498932080306</v>
+      </c>
+      <c r="C95">
+        <v>1.015326757964947</v>
+      </c>
+      <c r="D95">
         <v>1.016411378555799</v>
       </c>
-      <c r="C95">
-        <v>1.037700282752121</v>
-      </c>
-      <c r="D95">
-        <v>1.015326757964947</v>
-      </c>
       <c r="E95">
-        <v>0.9152498932080306</v>
+        <v>1.037646040675033</v>
       </c>
       <c r="F95">
-        <v>0.9862892773094289</v>
+        <v>1.006036979045581</v>
       </c>
       <c r="G95">
         <v>1.0396663478407</v>
@@ -3417,19 +3414,19 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>0.9142246903032891</v>
+      </c>
+      <c r="C96">
+        <v>1.026892783651458</v>
+      </c>
+      <c r="D96">
         <v>1.00492341356674</v>
       </c>
-      <c r="C96">
-        <v>1.032045240339303</v>
-      </c>
-      <c r="D96">
-        <v>1.026892783651458</v>
-      </c>
       <c r="E96">
-        <v>0.9142246903032891</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="F96">
-        <v>0.9868534375690938</v>
+        <v>1.002181551225013</v>
       </c>
       <c r="G96">
         <v>1.041007615700059</v>
@@ -3443,19 +3440,19 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>0.916104228961982</v>
+      </c>
+      <c r="C97">
+        <v>1.04271624210601</v>
+      </c>
+      <c r="D97">
         <v>1.045404814004376</v>
       </c>
-      <c r="C97">
-        <v>1.036757775683318</v>
-      </c>
-      <c r="D97">
-        <v>1.04271624210601</v>
-      </c>
       <c r="E97">
-        <v>0.916104228961982</v>
+        <v>1.036718798293874</v>
       </c>
       <c r="F97">
-        <v>1.000378395699345</v>
+        <v>1.020100272139981</v>
       </c>
       <c r="G97">
         <v>1.049991283329486</v>
@@ -3469,19 +3466,19 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>0.9245621529260999</v>
+      </c>
+      <c r="C98">
+        <v>1.03022777265309</v>
+      </c>
+      <c r="D98">
         <v>1.035740335521517</v>
       </c>
-      <c r="C98">
-        <v>1.079170593779453</v>
-      </c>
-      <c r="D98">
-        <v>1.03022777265309</v>
-      </c>
       <c r="E98">
-        <v>0.9245621529260999</v>
+        <v>1.079124683192187</v>
       </c>
       <c r="F98">
-        <v>1.004615533422298</v>
+        <v>1.030219743523985</v>
       </c>
       <c r="G98">
         <v>1.047283618470546</v>
@@ -3495,19 +3492,19 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>0.9200341734301579</v>
+      </c>
+      <c r="C99">
+        <v>1.029021500035479</v>
+      </c>
+      <c r="D99">
         <v>1.060083880379285</v>
       </c>
-      <c r="C99">
-        <v>1.130065975494816</v>
-      </c>
-      <c r="D99">
-        <v>1.029021500035479</v>
-      </c>
       <c r="E99">
-        <v>0.9200341734301579</v>
+        <v>1.130061197997157</v>
       </c>
       <c r="F99">
-        <v>1.015513847742257</v>
+        <v>1.054087340353384</v>
       </c>
       <c r="G99">
         <v>1.0568358328975</v>
@@ -3521,19 +3518,19 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>0.9070482699700982</v>
+      </c>
+      <c r="C100">
+        <v>1.026112254310651</v>
+      </c>
+      <c r="D100">
         <v>1.071298322392414</v>
       </c>
-      <c r="C100">
-        <v>1.116870876531574</v>
-      </c>
-      <c r="D100">
-        <v>1.026112254310651</v>
-      </c>
       <c r="E100">
-        <v>0.9070482699700982</v>
+        <v>1.116832540025963</v>
       </c>
       <c r="F100">
-        <v>1.009931736829725</v>
+        <v>1.050720473725792</v>
       </c>
       <c r="G100">
         <v>1.058527338148705</v>
@@ -3547,19 +3544,19 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>0.8967962409226826</v>
+      </c>
+      <c r="C101">
+        <v>1.024125452352232</v>
+      </c>
+      <c r="D101">
         <v>1.059263311451495</v>
       </c>
-      <c r="C101">
-        <v>1.111215834118756</v>
-      </c>
-      <c r="D101">
-        <v>1.024125452352232</v>
-      </c>
       <c r="E101">
-        <v>0.8967962409226826</v>
+        <v>1.111207269580268</v>
       </c>
       <c r="F101">
-        <v>1.002885613527664</v>
+        <v>1.042811979597217</v>
       </c>
       <c r="G101">
         <v>1.049366195966459</v>
@@ -3573,19 +3570,19 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>0.8946604015378042</v>
+      </c>
+      <c r="C102">
+        <v>1.02398353792663</v>
+      </c>
+      <c r="D102">
         <v>1.044037199124727</v>
       </c>
-      <c r="C102">
-        <v>1.106503298774741</v>
-      </c>
-      <c r="D102">
-        <v>1.02398353792663</v>
-      </c>
       <c r="E102">
-        <v>0.8946604015378042</v>
+        <v>1.106447425356988</v>
       </c>
       <c r="F102">
-        <v>0.9987443846661729</v>
+        <v>1.03582939578792</v>
       </c>
       <c r="G102">
         <v>1.047214513334935</v>
@@ -3599,19 +3596,19 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>0.9005553182400683</v>
+      </c>
+      <c r="C103">
+        <v>1.028382885120273</v>
+      </c>
+      <c r="D103">
         <v>1.066010211524435</v>
       </c>
-      <c r="C103">
-        <v>1.133836003770028</v>
-      </c>
-      <c r="D103">
-        <v>1.028382885120273</v>
-      </c>
       <c r="E103">
-        <v>0.9005553182400683</v>
+        <v>1.133831983680534</v>
       </c>
       <c r="F103">
-        <v>1.010523463708971</v>
+        <v>1.053867418988898</v>
       </c>
       <c r="G103">
         <v>1.051192770346358</v>
@@ -3625,19 +3622,19 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>0.9018368218709953</v>
+      </c>
+      <c r="C104">
+        <v>1.026254168736252</v>
+      </c>
+      <c r="D104">
         <v>1.088986141502553</v>
       </c>
-      <c r="C104">
-        <v>1.113100848256362</v>
-      </c>
-      <c r="D104">
-        <v>1.026254168736252</v>
-      </c>
       <c r="E104">
-        <v>0.9018368218709953</v>
+        <v>1.113061754342585</v>
       </c>
       <c r="F104">
-        <v>1.010624815159407</v>
+        <v>1.054451274032128</v>
       </c>
       <c r="G104">
         <v>1.055659475020849</v>
@@ -3651,19 +3648,19 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>0.903630926954293</v>
+      </c>
+      <c r="C105">
+        <v>1.022351522032215</v>
+      </c>
+      <c r="D105">
         <v>1.082786287381473</v>
       </c>
-      <c r="C105">
-        <v>1.105560791705938</v>
-      </c>
-      <c r="D105">
-        <v>1.022351522032215</v>
-      </c>
       <c r="E105">
-        <v>0.903630926954293</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="F105">
-        <v>1.007593211610407</v>
+        <v>1.049558151545616</v>
       </c>
       <c r="G105">
         <v>1.049857784772055</v>
@@ -3677,19 +3674,19 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>0.8973942759504484</v>
+      </c>
+      <c r="C106">
+        <v>1.018023132051373</v>
+      </c>
+      <c r="D106">
         <v>1.096097738876732</v>
       </c>
-      <c r="C106">
-        <v>1.103675777568332</v>
-      </c>
-      <c r="D106">
-        <v>1.018023132051373</v>
-      </c>
       <c r="E106">
-        <v>0.8973942759504484</v>
+        <v>1.103665698213513</v>
       </c>
       <c r="F106">
-        <v>1.006049242436262</v>
+        <v>1.051542893600091</v>
       </c>
       <c r="G106">
         <v>1.051167641206136</v>
@@ -3703,19 +3700,19 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>0.8967962409226826</v>
+      </c>
+      <c r="C107">
+        <v>1.024905981693039</v>
+      </c>
+      <c r="D107">
         <v>1.110959153902261</v>
       </c>
-      <c r="C107">
-        <v>1.141376060320452</v>
-      </c>
-      <c r="D107">
-        <v>1.024905981693039</v>
-      </c>
       <c r="E107">
-        <v>0.8967962409226826</v>
+        <v>1.141311738888546</v>
       </c>
       <c r="F107">
-        <v>1.017058719881049</v>
+        <v>1.069938772465639</v>
       </c>
       <c r="G107">
         <v>1.062591976579641</v>
@@ -3729,19 +3726,19 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>0.8851772746689448</v>
+      </c>
+      <c r="C108">
+        <v>1.016320158944157</v>
+      </c>
+      <c r="D108">
         <v>1.093818380743983</v>
       </c>
-      <c r="C108">
-        <v>1.152686145146089</v>
-      </c>
-      <c r="D108">
-        <v>1.016320158944157</v>
-      </c>
       <c r="E108">
-        <v>0.8851772746689448</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="F108">
-        <v>1.009399922493636</v>
+        <v>1.064580581019505</v>
       </c>
       <c r="G108">
         <v>1.056353667519487</v>
@@ -3755,19 +3752,19 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>0.8677488252883383</v>
+      </c>
+      <c r="C109">
+        <v>1.009721138153693</v>
+      </c>
+      <c r="D109">
         <v>1.107768052516412</v>
       </c>
-      <c r="C109">
-        <v>1.144203581526861</v>
-      </c>
-      <c r="D109">
-        <v>1.009721138153693</v>
-      </c>
       <c r="E109">
-        <v>0.8677488252883383</v>
+        <v>1.144155282190765</v>
       </c>
       <c r="F109">
-        <v>1.002400265723227</v>
+        <v>1.062304594238514</v>
       </c>
       <c r="G109">
         <v>1.046575290830534</v>
@@ -3781,19 +3778,19 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>0.863049978641606</v>
+      </c>
+      <c r="C110">
+        <v>1.003334989001632</v>
+      </c>
+      <c r="D110">
         <v>1.074762946754194</v>
       </c>
-      <c r="C110">
-        <v>1.076343072573044</v>
-      </c>
-      <c r="D110">
-        <v>1.003334989001632</v>
-      </c>
       <c r="E110">
-        <v>0.863049978641606</v>
+        <v>1.076281139889967</v>
       </c>
       <c r="F110">
-        <v>0.9815950626078991</v>
+        <v>1.027129993091924</v>
       </c>
       <c r="G110">
         <v>1.031282638434078</v>
@@ -3807,19 +3804,19 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>0.8614267407090986</v>
+      </c>
+      <c r="C111">
+        <v>1.001419144256014</v>
+      </c>
+      <c r="D111">
         <v>1.158096280087527</v>
       </c>
-      <c r="C111">
-        <v>1.105560791705938</v>
-      </c>
-      <c r="D111">
-        <v>1.001419144256014</v>
-      </c>
       <c r="E111">
-        <v>0.8614267407090986</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="F111">
-        <v>0.9995608442433762</v>
+        <v>1.063677233254977</v>
       </c>
       <c r="G111">
         <v>1.03911664789834</v>
@@ -3833,19 +3830,19 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>0.8613413071337035</v>
+      </c>
+      <c r="C112">
+        <v>0.9994323422975946</v>
+      </c>
+      <c r="D112">
         <v>1.167122538293217</v>
       </c>
-      <c r="C112">
-        <v>1.152686145146089</v>
-      </c>
-      <c r="D112">
-        <v>0.9994323422975946</v>
-      </c>
       <c r="E112">
-        <v>0.8613413071337035</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="F112">
-        <v>1.008422780497011</v>
+        <v>1.081847909699846</v>
       </c>
       <c r="G112">
         <v>1.045648653784841</v>
@@ -3859,19 +3856,19 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>0.8572404955147372</v>
+      </c>
+      <c r="C113">
+        <v>1.002412545235223</v>
+      </c>
+      <c r="D113">
         <v>1.173504741064916</v>
       </c>
-      <c r="C113">
-        <v>1.157398680490104</v>
-      </c>
-      <c r="D113">
-        <v>1.002412545235223</v>
-      </c>
       <c r="E113">
-        <v>0.8572404955147372</v>
+        <v>1.157383940161958</v>
       </c>
       <c r="F113">
-        <v>1.00993908511184</v>
+        <v>1.085334281732362</v>
       </c>
       <c r="G113">
         <v>1.053410416970965</v>
@@ -3885,19 +3882,19 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>0.8598889363519863</v>
+      </c>
+      <c r="C114">
+        <v>1.012062726176116</v>
+      </c>
+      <c r="D114">
         <v>1.171772428884026</v>
       </c>
-      <c r="C114">
-        <v>1.161168708765316</v>
-      </c>
-      <c r="D114">
-        <v>1.012062726176116</v>
-      </c>
       <c r="E114">
-        <v>0.8598889363519863</v>
+        <v>1.161154725845336</v>
       </c>
       <c r="F114">
-        <v>1.014344042034662</v>
+        <v>1.088097743690467</v>
       </c>
       <c r="G114">
         <v>1.058532049862497</v>
@@ -3911,19 +3908,19 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>0.8666381888082015</v>
+      </c>
+      <c r="C115">
+        <v>1.014049528134535</v>
+      </c>
+      <c r="D115">
         <v>1.224653537563822</v>
       </c>
-      <c r="C115">
-        <v>1.190386427898209</v>
-      </c>
-      <c r="D115">
-        <v>1.014049528134535</v>
-      </c>
       <c r="E115">
-        <v>0.8666381888082015</v>
+        <v>1.190331952772455</v>
       </c>
       <c r="F115">
-        <v>1.031183740719648</v>
+        <v>1.116662123691237</v>
       </c>
       <c r="G115">
         <v>1.066410035322148</v>
@@ -3937,19 +3934,19 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>0.8687740281930797</v>
+      </c>
+      <c r="C116">
+        <v>1.008514865536082</v>
+      </c>
+      <c r="D116">
         <v>1.204959883296864</v>
       </c>
-      <c r="C116">
-        <v>1.175306314797361</v>
-      </c>
-      <c r="D116">
-        <v>1.008514865536082</v>
-      </c>
       <c r="E116">
-        <v>0.8687740281930797</v>
+        <v>1.175248810038944</v>
       </c>
       <c r="F116">
-        <v>1.024150588606642</v>
+        <v>1.104607980734774</v>
       </c>
       <c r="G116">
         <v>1.060900471328436</v>
@@ -3963,19 +3960,19 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>0.8883383169585647</v>
+      </c>
+      <c r="C117">
+        <v>1.022635350883417</v>
+      </c>
+      <c r="D117">
         <v>1.219547775346462</v>
       </c>
-      <c r="C117">
-        <v>1.193213949104618</v>
-      </c>
-      <c r="D117">
-        <v>1.022635350883417</v>
-      </c>
       <c r="E117">
-        <v>0.8883383169585647</v>
+        <v>1.193175496074674</v>
       </c>
       <c r="F117">
-        <v>1.040790803544538</v>
+        <v>1.121064203102112</v>
       </c>
       <c r="G117">
         <v>1.070094595507224</v>
@@ -3989,25 +3986,259 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.219547775346462</v>
+        <v>0.8780862879111491</v>
       </c>
       <c r="C118">
-        <v>1.193213949104618</v>
+        <v>1.016249201731356</v>
       </c>
       <c r="D118">
-        <v>1.022635350883417</v>
+        <v>1.239423778264041</v>
       </c>
       <c r="E118">
-        <v>0.8883383169585647</v>
+        <v>1.222414539160537</v>
       </c>
       <c r="F118">
-        <v>1.040790803544538</v>
+        <v>1.134443677989336</v>
       </c>
       <c r="G118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>0.8652712516018795</v>
+      </c>
+      <c r="C119">
+        <v>1.008869651600085</v>
+      </c>
+      <c r="D119">
+        <v>1.227024070021882</v>
+      </c>
+      <c r="E119">
+        <v>1.226185324843914</v>
+      </c>
+      <c r="F119">
+        <v>1.128163053850047</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>0.8711661683041435</v>
+      </c>
+      <c r="C120">
+        <v>1.018519832540978</v>
+      </c>
+      <c r="D120">
+        <v>1.282913931436907</v>
+      </c>
+      <c r="E120">
+        <v>1.254435309389875</v>
+      </c>
+      <c r="F120">
+        <v>1.158571869616509</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>0.8601452370781716</v>
+      </c>
+      <c r="C121">
+        <v>1.024835024480238</v>
+      </c>
+      <c r="D121">
+        <v>1.25291757840992</v>
+      </c>
+      <c r="E121">
+        <v>1.241268467577425</v>
+      </c>
+      <c r="F121">
+        <v>1.143528039640754</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.8340025630072617</v>
+      </c>
+      <c r="C122">
+        <v>1.00517987653445</v>
+      </c>
+      <c r="D122">
+        <v>1.233497447118891</v>
+      </c>
+      <c r="E122">
+        <v>1.235581380972986</v>
+      </c>
+      <c r="F122">
+        <v>1.127457027992411</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.8332336608287055</v>
+      </c>
+      <c r="C123">
+        <v>0.9936848080607394</v>
+      </c>
+      <c r="D123">
+        <v>1.283096280087527</v>
+      </c>
+      <c r="E123">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="F123">
+        <v>1.151082662093728</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.8416915847928235</v>
+      </c>
+      <c r="C124">
+        <v>0.9975164975519761</v>
+      </c>
+      <c r="D124">
+        <v>1.258205689277899</v>
+      </c>
+      <c r="E124">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="F124">
+        <v>1.144958001413961</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>0.840666381888082</v>
+      </c>
+      <c r="C125">
+        <v>1.004257432768041</v>
+      </c>
+      <c r="D125">
+        <v>1.293490153172867</v>
+      </c>
+      <c r="E125">
+        <v>1.332694566359646</v>
+      </c>
+      <c r="F125">
+        <v>1.18027800593727</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.8326356258009397</v>
+      </c>
+      <c r="C126">
+        <v>1.002554459660824</v>
+      </c>
+      <c r="D126">
+        <v>1.329412837345004</v>
+      </c>
+      <c r="E126">
+        <v>1.352475737157693</v>
+      </c>
+      <c r="F126">
+        <v>1.19700554411439</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.8311832550192225</v>
+      </c>
+      <c r="C127">
+        <v>0.9921947065919251</v>
+      </c>
+      <c r="D127">
+        <v>1.310083880379285</v>
+      </c>
+      <c r="E127">
+        <v>1.37225690795574</v>
+      </c>
+      <c r="F127">
+        <v>1.195146713624453</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4119,18 +4350,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4162,172 +4393,157 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J2">
-        <v>81.61</v>
+        <v>1.657299995422363</v>
       </c>
       <c r="K2">
-        <v>8.33</v>
+        <v>13.48019981384277</v>
       </c>
       <c r="L2">
-        <v>20.06</v>
-      </c>
-      <c r="M2">
-        <v>59.93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.4625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J3">
-        <v>141.9</v>
+        <v>4.20359992980957</v>
       </c>
       <c r="K3">
-        <v>9.640000000000001</v>
+        <v>20.93000030517578</v>
       </c>
       <c r="L3">
-        <v>12.41</v>
-      </c>
-      <c r="M3">
-        <v>31.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.5999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="J4">
-        <v>21.55</v>
+        <v>9.079999923706055</v>
       </c>
       <c r="K4">
-        <v>4.32</v>
+        <v>87.84709930419922</v>
       </c>
       <c r="L4">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="M4">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>59.9349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="J5">
-        <v>14.36</v>
+        <v>10.94120025634766</v>
       </c>
       <c r="K5">
-        <v>1.76</v>
+        <v>161.9600982666016</v>
       </c>
       <c r="L5">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="M5">
-        <v>4.46</v>
+        <v>31.9832</v>
       </c>
     </row>
   </sheetData>
@@ -4345,19 +4561,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4365,19 +4581,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4385,19 +4601,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4405,19 +4621,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4425,19 +4641,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4445,19 +4661,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4465,19 +4681,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4485,19 +4701,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4505,19 +4721,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4525,19 +4741,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4545,19 +4761,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4565,19 +4781,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4585,19 +4801,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4605,19 +4821,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4625,19 +4841,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4645,19 +4861,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4665,19 +4881,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4685,19 +4901,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4705,19 +4921,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4725,19 +4941,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4745,19 +4961,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4767,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4775,21 +4991,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4797,10 +5013,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4808,43 +5024,43 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4855,18 +5071,7 @@
         <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
